--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1538,6 +1538,9 @@
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F129" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1599,7 +1602,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551535330106328582510123191510102051551111255108314251032012813515151515310182012103015128101551012120</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551535330106328582510123191510102051551111255108314251032012813515151515310182012103015128101551012124</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1542,9 +1542,87 @@
         <v>4</v>
       </c>
     </row>
+    <row r="130" xml:space="preserve">
+      <c r="C130" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F130" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F131" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F132" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F133" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F134" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F135" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F136" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F137" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="str">
+        <v>852_面包菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F138" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="str">
+        <v>167_迪威娜_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L139"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1602,7 +1680,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551535330106328582510123191510102051551111255108314251032012813515151515310182012103015128101551012124</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121030151281015510121241220310510251030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1619,6 +1619,9 @@
       <c r="C139" t="str">
         <v>167_迪威娜_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F139" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1680,7 +1683,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121030151281015510121241220310510251030</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121030151281015510121241220310510251031</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1623,9 +1623,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="140">
+      <c r="C140" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F140" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>22</v>
+      </c>
+      <c r="C141" t="str">
+        <v>362_蓬莱松_Asparagus_undefined_1bunch</v>
+      </c>
+      <c r="F141" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F142" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L139"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L142"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1683,7 +1710,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121030151281015510121241220310510251031</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121030151281015510121241220310510251031101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -523,6 +523,9 @@
       <c r="A11" t="str">
         <v>3</v>
       </c>
+      <c r="C11" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401550</v>
+        <v>01044010101870401551</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,12 +527,92 @@
         <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>425_多头鼠尾 粉色_spray veronica pink_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551</v>
+        <v>0104401010187040155179125720161410100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -609,6 +609,9 @@
       <c r="A21" t="str">
         <v>5</v>
       </c>
+      <c r="C21" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410100</v>
+        <v>0104401010187040155179125720161410106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,9 +616,89 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>280_杏仁果汁_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -676,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106</v>
+        <v>0104401010187040155179125720161410106614210813115110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115110</v>
+        <v>0104401010187040155179125720161410106614210813115115</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>7</v>
+      </c>
+      <c r="C35" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8</v>
+      </c>
+      <c r="C39" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115</v>
+        <v>0104401010187040155179125720161410106614210813115115345205132019200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -781,6 +781,9 @@
       <c r="A41" t="str">
         <v>9</v>
       </c>
+      <c r="C41" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -784,6 +784,9 @@
       <c r="C41" t="str">
         <v>522_山归来绿_Smilax china_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -845,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115345205132019200</v>
+        <v>0104401010187040155179125720161410106614210813115115345205132019201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -785,7 +785,7 @@
         <v>522_山归来绿_Smilax china_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115345205132019201</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -788,9 +788,91 @@
         <v>18</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -848,7 +930,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556480</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -867,7 +867,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -869,6 +869,9 @@
       <c r="A51" t="str">
         <v>11</v>
       </c>
+      <c r="C51" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -872,6 +872,9 @@
       <c r="C51" t="str">
         <v>462_五针松_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -933,7 +936,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556480</v>
+        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -876,9 +876,88 @@
         <v>23</v>
       </c>
     </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F60" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -936,7 +1015,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -952,7 +952,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -954,6 +954,9 @@
       <c r="A61" t="str">
         <v>12</v>
       </c>
+      <c r="C61" t="str">
+        <v>101_绣球浅秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -955,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="str">
-        <v>101_绣球浅秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+        <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -957,6 +957,9 @@
       <c r="C61" t="str">
         <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1018,7 +1021,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151060</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -958,7 +958,7 @@
         <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1021,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061</v>
+        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,9 +961,90 @@
         <v>115</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>13</v>
+      </c>
+      <c r="C64" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>396_米花白_rice flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1021,7 +1102,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115</v>
+        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115201560102025815200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1041,6 +1041,9 @@
       <c r="C71" t="str">
         <v>396_米花白_rice flower white_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1102,7 +1105,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115201560102025815200</v>
+        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115201560102025815205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1045,9 +1045,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L74"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1105,7 +1131,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0104401010187040155179125720161410106614210813115115345205132019201810105541655648238551051015106115201560102025815205</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1071,9 +1071,95 @@
         <v>8</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>14</v>
+      </c>
+      <c r="C75" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>15</v>
+      </c>
+      <c r="C76" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>16</v>
+      </c>
+      <c r="C78" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L84"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1131,7 +1217,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1156,6 +1156,9 @@
       <c r="C84" t="str">
         <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
       </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1217,7 +1220,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055550</v>
+        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,9 +1160,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>17</v>
+      </c>
+      <c r="C86" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>18</v>
+      </c>
+      <c r="C92" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L94"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1220,7 +1303,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055551056813205810310</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1242,6 +1242,9 @@
       <c r="C94" t="str">
         <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
       </c>
+      <c r="F94" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1303,7 +1306,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055551056813205810310</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055551056813205810313</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1243,7 +1243,7 @@
         <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
       </c>
       <c r="F94" t="str">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1306,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055551056813205810313</v>
+        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1246,9 +1246,91 @@
         <v>35</v>
       </c>
     </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>333_狼尾草_wolf tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>623_多丁粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>628_多丁白星太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>19</v>
+      </c>
+      <c r="C102" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L104"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1306,7 +1388,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135</v>
+        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135151101025851050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -1327,6 +1327,9 @@
       <c r="C104" t="str">
         <v>610_康乃馨黄_yellow_undefined_20stems</v>
       </c>
+      <c r="F104" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1388,7 +1391,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135151101025851050</v>
+        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135151101025851054</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,9 +1331,87 @@
         <v>4</v>
       </c>
     </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F106" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F107" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F108" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>20</v>
+      </c>
+      <c r="C110" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>626_多丁莫言_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>21</v>
+      </c>
+      <c r="C113" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F113" t="str">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L104"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L113"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1391,7 +1469,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010440101018704015517912572016141010661421081311511534520513201920181010554165564823855105101510611520156010202581520551683423181510555510568132058103135151101025851054</v>
+        <v>01044010101870401551791257201614101066142108131151153452051320192018101055416556482385510510151061152015601020258152055168342318151055551056813205810313515110102585105482310201040301517</v>
       </c>
     </row>
   </sheetData>
